--- a/source/_static/report/IRA1_sample_r51.xlsx
+++ b/source/_static/report/IRA1_sample_r51.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\COUNTER\Release 5.1\Sample reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46784309-73C2-41E0-B744-1CDD2A1CD97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE834E7-F582-405C-877A-14FB5220A2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41EFD049-01F5-4711-B5FE-D987E7B78DE9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{41EFD049-01F5-4711-B5FE-D987E7B78DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="IRA1_sample_r51" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>Registry_Record</t>
   </si>
   <si>
-    <t>https://registry.projectcounter.org/platform/99999999-9999-9999-9999-999999999999</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -528,6 +525,9 @@
   </si>
   <si>
     <t>674</t>
+  </si>
+  <si>
+    <t>https://registry.countermetrics.org/platform/99999999-9999-9999-9999-999999999999</t>
   </si>
 </sst>
 </file>
@@ -596,9 +596,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -636,7 +636,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -742,7 +742,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -884,7 +884,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1394,7 +1394,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1469,141 +1469,141 @@
     </row>
     <row r="15" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AG15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AH15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AH15" s="1" t="s">
+      <c r="AI15" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1614,81 +1614,81 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AG16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="AH16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AH16" s="1" t="s">
+      <c r="AI16" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1699,429 +1699,429 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AG17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG17" s="1" t="s">
+      <c r="AH17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AH17" s="1" t="s">
+      <c r="AI17" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AB18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AG18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AG18" s="1" t="s">
+      <c r="AH18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AH18" s="1" t="s">
+      <c r="AI18" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="U19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U19" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="V19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AB19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AC19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AE19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AE19" s="1" t="s">
+      <c r="AF19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AF19" s="1" t="s">
+      <c r="AG19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AG19" s="1" t="s">
+      <c r="AH19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AH19" s="1" t="s">
+      <c r="AI19" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="AI19" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="T20" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="U20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="W20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AC20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AE20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AE20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AF20" s="1" t="s">
+      <c r="AG20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AG20" s="1" t="s">
+      <c r="AH20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AH20" s="1" t="s">
+      <c r="AI20" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="T21" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="U21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="X21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AG21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AH21" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AI21" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="AI21" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10081,7 +10081,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{B5B94D26-F1BB-4415-AE55-40AC0BD2350A}"/>
+    <hyperlink ref="B13" r:id="rId1" display="https://registry.projectcounter.org/platform/99999999-9999-9999-9999-999999999999" xr:uid="{B5B94D26-F1BB-4415-AE55-40AC0BD2350A}"/>
     <hyperlink ref="T18" r:id="rId2" xr:uid="{B4824A0A-FF88-4E65-B06D-683AFE5BDE0F}"/>
     <hyperlink ref="T19" r:id="rId3" xr:uid="{BD8BED09-1BD0-443C-973A-920AAC66DE0F}"/>
     <hyperlink ref="T20" r:id="rId4" xr:uid="{0BFBC727-7B2A-4C07-9E1B-39B21457021C}"/>
